--- a/刷題情況.xlsx
+++ b/刷題情況.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56657EE-C3EA-4FF1-8DA0-B6F830FE8C4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127352BE-F22A-456F-9908-C9625E8D980F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,91 +26,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>題號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>203. Remove Linked List Elements</t>
   </si>
   <si>
-    <t>類型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>289. Game of Life</t>
   </si>
   <si>
-    <t>array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>347. Top K Frequent Elements</t>
   </si>
   <si>
-    <t>題目</t>
+    <t>有prority_queue</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Container With Most Water</t>
-  </si>
-  <si>
-    <t>解題狀況</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看解答</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>two sum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>觀念會,看解答</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>過!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permutations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permutations 11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>過 效能不佳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4Sum</t>
-  </si>
-  <si>
-    <t>未寫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寫出來</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60_Permutation_Sequence</t>
-  </si>
-  <si>
-    <t>16_3Sum Closest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,10 +87,59 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,18 +159,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,180 +460,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.8984375" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="42.69921875" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
     <col min="5" max="5" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
